--- a/pages/Fallbeispiele.xlsx
+++ b/pages/Fallbeispiele.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpphysio-my.sharepoint.com/personal/arne_hpphysio_onmicrosoft_com/Documents/PatientChat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arneb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D7FBCC-6FF5-45E0-B70C-38060EEA6495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2E066-3DFA-485F-8F9B-856B3EB8B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Zusammenfassung</t>
   </si>
   <si>
-    <t>Details</t>
-  </si>
-  <si>
     <t>Herr Heinrich Meier, 68 Jahre, Schmerz im Knie</t>
   </si>
   <si>
-    <t>Name: Heinrich Meier Alter: 68 Beruf: Rentner, ehemaliger Bauarbeiter Persönliches: Verheiratet, Vater von zwei erwachsenen Kindern. Er genießt es, seine Enkelkinder zu betreuen und geht gerne in seinem Garten spazieren. Er ist ein leidenschaftlicher Schachspieler und hat ein Faible für Oldtimer. Ein ruhiger und bedachter Mensch, der Wert auf Traditionen legt. Epidemiologie: Übergewichtig (BMI 29), hat in jungen Jahren Fußball gespielt, keine Raucherhistorie Symptome: Schmerzen beim Beugen und Strecken des Knies, morgendliche Steifheit für ca. 30 Minuten Zeichen: Knirschgeräusche im Knie, leichte Schwellung, Bewegungseinschränkung Verlauf: Schmerzen seit ca. 5 Jahren, schubweise Therapie: Noch keine spezifische Therapie Untersuchungsbefunde: Noch keine speziellen Untersuchungen durchgeführt Vorgeschichte: Keine besonderen Vorgeschichten Erkrankung: Arthrose</t>
-  </si>
-  <si>
     <t>Frau Petra Lehmann, 52 Jahre, Schmerzhafte Finger</t>
   </si>
   <si>
-    <t>Name: Petra Lehmann Alter: 52 Beruf: Buchhalterin Persönliches: Ledig und hat zwei Katzen, mit denen sie viel Zeit verbringt. Petra liebt es zu lesen, besonders Krimis und historische Romane. Sie ist sehr organisiert und strukturiert, was sich sowohl in ihrer Arbeit als auch in ihrem Haushalt widerspiegelt. Sie ist ein Fan von klassischer Musik und besucht regelmäßig Konzerte. Epidemiologie: Nichtraucherin, keine Familienanamnese von Rheuma, häufiger Stress, wenig Sport Symptome: Morgensteifheit über 1 Stunde, allgemeines Krankheitsgefühl, Gewichtsverlust, niedriges Fieber Zeichen: Symmetrische Schwellung kleiner Finger- und Handgelenke, Rötung und Erwärmung der Gelenke Verlauf: Symptome seit 8 Monaten, stetig zugenommen Therapie: Noch keine spezifische Therapie Untersuchungsbefunde: Noch keine speziellen Untersuchungen durchgeführt Vorgeschichte: Keine besonderen Vorgeschichten Erkrankung: Rheumatoide Arthritis</t>
-  </si>
-  <si>
     <t>Frau Stefanie Weber, 35 Jahre, Diffuse Körperschmerzen</t>
   </si>
   <si>
-    <t>Name: Stefanie Weber Alter: 35 Beruf: Lehrerin Persönliches: Stefanie ist Mutter von zwei kleinen Kindern. Sie ist seit einigen Jahren geschieden und versucht, den Alltag mit ihrer Familie zu meistern. In ihrer Freizeit malt sie gern, auch wenn sie nur selten die Zeit dazu findet. Sie hat einen lebhaften Charakter, ist manchmal etwas ungeduldig, aber immer bemüht, für ihre Familie da zu sein. Sie träumt davon, eines Tages wieder zu reisen. Epidemiologie: Hoher Stresspegel, schlechter Schlaf, vor 2 Jahren Autounfall mit leichtem Schleudertrauma, regelmäßiger Kaffeekonsum Symptome: Diffuse Muskelschmerzen, Müdigkeit trotz ausreichendem Schlaf, Kopfschmerzen, Depressionen, Konzentrationsprobleme Zeichen: Empfindlichkeiten an einigen Körperregionen beim Abtasten Verlauf: Symptome seit ca. 1,5 Jahren, wellenartig Therapie: Noch keine spezifische Therapie Untersuchungsbefunde: Noch keine speziellen Untersuchungen durchgeführt Vorgeschichte: Vor 2 Jahren Schleudertrauma nach Autounfall Erkrankung: Fibromyalgie</t>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Privates</t>
+  </si>
+  <si>
+    <t>Edpidemiologie</t>
+  </si>
+  <si>
+    <t>Symptome</t>
+  </si>
+  <si>
+    <t>Zeichen</t>
+  </si>
+  <si>
+    <t>Verlauf</t>
+  </si>
+  <si>
+    <t>Therapie</t>
+  </si>
+  <si>
+    <t>Untersuchungsbefunde</t>
+  </si>
+  <si>
+    <t>Erkrankung</t>
+  </si>
+  <si>
+    <t>sonstiges</t>
+  </si>
+  <si>
+    <t>Heinrich</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Rentner, ehemaliger Bauarbeiter</t>
+  </si>
+  <si>
+    <t>Übergewichtig (BMI 29), hat in jungen Jahren Fußball gespielt, keine Raucherhistorie</t>
+  </si>
+  <si>
+    <t>Schmerzen beim Beugen und Strecken des Knies, morgendliche Steifheit für ca. 30 Minuten</t>
+  </si>
+  <si>
+    <t>Knirschgeräusche im Knie, leichte Schwellung, Bewegungseinschränkung</t>
+  </si>
+  <si>
+    <t>Schmerzen seit ca. 5 Jahren, schubweise</t>
+  </si>
+  <si>
+    <t>Noch keine spezifische Therapie</t>
+  </si>
+  <si>
+    <t>Noch keine speziellen Untersuchungen durchgeführt</t>
+  </si>
+  <si>
+    <t>Arthrose</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Lehmann</t>
+  </si>
+  <si>
+    <t>Buchhalterin</t>
+  </si>
+  <si>
+    <t>Nichtraucherin, keine Familienanamnese von Rheuma, häufiger Stress, wenig Sport</t>
+  </si>
+  <si>
+    <t>Morgensteifheit über 1 Stunde, allgemeines Krankheitsgefühl, Gewichtsverlust, niedriges Fieber</t>
+  </si>
+  <si>
+    <t>Symmetrische Schwellung kleiner Finger- und Handgelenke, Rötung und Erwärmung der Gelenke</t>
+  </si>
+  <si>
+    <t>Rheumatoide Arthritis</t>
+  </si>
+  <si>
+    <t>Stefanie</t>
+  </si>
+  <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Lehrerin</t>
+  </si>
+  <si>
+    <t>Hoher Stresspegel, schlechter Schlaf, vor 2 Jahren Autounfall mit leichtem Schleudertrauma, regelmäßiger Kaffeekonsum</t>
+  </si>
+  <si>
+    <t>Empfindlichkeiten an einigen Körperregionen beim Abtasten</t>
+  </si>
+  <si>
+    <t>Fibromyalgie</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geht gerne in seinem Garten spazieren. Er ist ein leidenschaftlicher Schachspieler und hat ein Faible für Oldtimer. </t>
+  </si>
+  <si>
+    <t>Verheiratet, Vater von zwei erwachsenen Kindern. Er genießt es, seine Enkelkinder zu betreuen. Ein ruhiger und bedachter Mensch, der Wert auf Traditionen legt.</t>
+  </si>
+  <si>
+    <t>Ledig und hat zwei Katzen, mit denen sie viel Zeit verbringt. Sie ist sehr organisiert und strukturiert, was sich sowohl in ihrer Arbeit als auch in ihrem Haushalt widerspiegelt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Petra liebt es zu lesen, besonders Krimis und historische Romane.  Sie ist ein Fan von klassischer Musik und besucht regelmäßig Konzerte. </t>
+  </si>
+  <si>
+    <t>Sie ist sehr redefreudig und sprachgewandt. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
+  </si>
+  <si>
+    <t>Symptome seit 2 Jahren, stetig zugenommen, Schübe in denen es deutlich schlechter ist</t>
+  </si>
+  <si>
+    <t>Eigenmaßnahmen</t>
+  </si>
+  <si>
+    <t>Beine hochlegen, manchmal Paracetamol oder andere Schmerzmittel</t>
+  </si>
+  <si>
+    <t>Ibuprofen, manchmal kühlen der Hände</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In ihrer Freizeit malt sie gern, auch wenn sie nur selten die Zeit dazu findet. Sie träumt davon, eines Tages wieder zu reisen.</t>
+  </si>
+  <si>
+    <t>Stefanie ist Mutter von zwei kleinen Kindern. Sie ist seit einigen Jahren geschieden und versucht, den Alltag mit ihrer Familie zu meistern. Sie hat einen lebhaften Charakter, ist manchmal etwas ungeduldig, aber immer bemüht, für ihre Familie da zu sein. Sie wird zunehmend pessimistisch für Ihre Zukunft.</t>
+  </si>
+  <si>
+    <t>Diffuse Muskelschmerzen, Müdigkeit trotz ausreichendem Schlaf, Kopfschmerzen,  Konzentrationsprobleme. Der Körper fühlt sich irgendwie fremd an.</t>
+  </si>
+  <si>
+    <t>Symptome seit ca. 3 Jahren, unterschiedlich stark ausgeprägt. Zwischendurch kurze Phasen in denen es ganz gut war.</t>
+  </si>
+  <si>
+    <t>Hinlegen und Schlafen. Musik hören. Manchmal versucht sie zu Meditieren zur Ablenkung, das gelingt ihr aber nur begrenzt.</t>
+  </si>
+  <si>
+    <t>Eher pessimistisch. Spricht über ihren Körper eher als wäre dieser eine Art Maschiene, die nicht mehr fuktoniert wie früher. Spricht eher abstrakt. Umschreibt ihre Beschwerden.</t>
+  </si>
+  <si>
+    <t>Alter</t>
   </si>
 </sst>
 </file>
@@ -115,11 +271,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D42186-28D8-4C66-9A4D-F7B584FBAF22}" name="Tabelle1" displayName="Tabelle1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{23D42186-28D8-4C66-9A4D-F7B584FBAF22}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{23D42186-28D8-4C66-9A4D-F7B584FBAF22}" name="Tabelle1" displayName="Tabelle1" ref="A1:R4" totalsRowShown="0">
+  <autoFilter ref="A1:R4" xr:uid="{23D42186-28D8-4C66-9A4D-F7B584FBAF22}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{84F2E744-1600-4C94-B153-7BAFB276A588}" name="Zusammenfassung"/>
-    <tableColumn id="2" xr3:uid="{B520B51B-A400-42F5-AEBC-8A3EF5D16768}" name="Details"/>
+    <tableColumn id="3" xr3:uid="{BA84665A-A172-4ED9-AC93-399903469767}" name="Geschlecht"/>
+    <tableColumn id="19" xr3:uid="{BD52BEE7-55C6-406B-B0A5-1315D034D108}" name="Alter"/>
+    <tableColumn id="4" xr3:uid="{0660D0EE-79B5-4268-8E3D-EDA985F96490}" name="Vorname"/>
+    <tableColumn id="5" xr3:uid="{3A392C2B-B106-4814-A48D-06C1D6D355D9}" name="Nachname"/>
+    <tableColumn id="6" xr3:uid="{7E37EC2B-573A-4B2A-8EE9-5EE7FA33FA18}" name="Beruf"/>
+    <tableColumn id="9" xr3:uid="{49396D8B-EF83-4CEE-B450-D8C1C10B7916}" name="Hobbies"/>
+    <tableColumn id="7" xr3:uid="{48459119-D192-4D11-A6C2-3ED97A51B859}" name="Privates"/>
+    <tableColumn id="8" xr3:uid="{DACA5031-2727-44EC-84B6-5A6993CABF45}" name="Sprache"/>
+    <tableColumn id="10" xr3:uid="{182D74B4-9C01-4211-BE71-4B589E05684B}" name="Edpidemiologie"/>
+    <tableColumn id="11" xr3:uid="{D1F25EB5-E85B-4F0B-B8CD-983AEA65D15D}" name="Symptome"/>
+    <tableColumn id="12" xr3:uid="{973AAF49-5723-4572-95BD-44EBE64785BC}" name="Zeichen"/>
+    <tableColumn id="13" xr3:uid="{6C1763DE-8DB0-4EBC-95E2-DCB99F56E3BA}" name="Verlauf"/>
+    <tableColumn id="14" xr3:uid="{A62BC203-AE70-49DE-9485-23FD74E33B59}" name="Therapie"/>
+    <tableColumn id="18" xr3:uid="{752001D1-A59B-4DC3-91E5-479DA62EDBD0}" name="Eigenmaßnahmen"/>
+    <tableColumn id="15" xr3:uid="{C8F58B69-BA4E-469B-A0AF-4CD603F8F7E5}" name="Untersuchungsbefunde"/>
+    <tableColumn id="16" xr3:uid="{92E8922F-C577-42F9-9C14-A382C0A22AB1}" name="Erkrankung"/>
+    <tableColumn id="17" xr3:uid="{661C29D0-B423-4B73-8A04-62DBB3E0F6E7}" name="sonstiges"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,47 +594,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF814BED-C973-4436-8B0A-48A06574A8E9}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/pages/Fallbeispiele.xlsx
+++ b/pages/Fallbeispiele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arneb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2E066-3DFA-485F-8F9B-856B3EB8B8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716042C-B0B8-4F22-AE7F-6344A587B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Privates</t>
   </si>
   <si>
-    <t>Edpidemiologie</t>
-  </si>
-  <si>
     <t>Symptome</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>sonstiges</t>
+  </si>
+  <si>
+    <t>Epidemiologie</t>
   </si>
   <si>
     <t>Heinrich</t>
@@ -283,7 +283,7 @@
     <tableColumn id="9" xr3:uid="{49396D8B-EF83-4CEE-B450-D8C1C10B7916}" name="Hobbies"/>
     <tableColumn id="7" xr3:uid="{48459119-D192-4D11-A6C2-3ED97A51B859}" name="Privates"/>
     <tableColumn id="8" xr3:uid="{DACA5031-2727-44EC-84B6-5A6993CABF45}" name="Sprache"/>
-    <tableColumn id="10" xr3:uid="{182D74B4-9C01-4211-BE71-4B589E05684B}" name="Edpidemiologie"/>
+    <tableColumn id="10" xr3:uid="{182D74B4-9C01-4211-BE71-4B589E05684B}" name="Epidemiologie"/>
     <tableColumn id="11" xr3:uid="{D1F25EB5-E85B-4F0B-B8CD-983AEA65D15D}" name="Symptome"/>
     <tableColumn id="12" xr3:uid="{973AAF49-5723-4572-95BD-44EBE64785BC}" name="Zeichen"/>
     <tableColumn id="13" xr3:uid="{6C1763DE-8DB0-4EBC-95E2-DCB99F56E3BA}" name="Verlauf"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,31 +635,31 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
       </c>
       <c r="O1" t="s">
         <v>50</v>
       </c>
       <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">

--- a/pages/Fallbeispiele.xlsx
+++ b/pages/Fallbeispiele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arneb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6716042C-B0B8-4F22-AE7F-6344A587B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9E886-5FA2-4C21-AD17-26EE779DD641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>Buchhalterin</t>
   </si>
   <si>
-    <t>Nichtraucherin, keine Familienanamnese von Rheuma, häufiger Stress, wenig Sport</t>
-  </si>
-  <si>
     <t>Morgensteifheit über 1 Stunde, allgemeines Krankheitsgefühl, Gewichtsverlust, niedriges Fieber</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t xml:space="preserve"> Petra liebt es zu lesen, besonders Krimis und historische Romane.  Sie ist ein Fan von klassischer Musik und besucht regelmäßig Konzerte. </t>
   </si>
   <si>
-    <t>Sie ist sehr redefreudig und sprachgewandt. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
-  </si>
-  <si>
     <t>Symptome seit 2 Jahren, stetig zugenommen, Schübe in denen es deutlich schlechter ist</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>Alter</t>
+  </si>
+  <si>
+    <t>Nichtraucherin, keine Familienanamnese von mit ähnlichen Beschwerden, häufiger Stress, wenig Sport</t>
+  </si>
+  <si>
+    <t>Sie ist sehr redefreudig und sprachgewandt. Sie hat eine Deutsche Mutter aber fast Ihr ganzes Leben im franösisch-sprachigen Raum von Kanada verbracht. Sie spricht daher nicht fehlerfrei deutsch. Manchmal fallen ihr Wörter nicht ein und sie versucht dann den französischen oder englischen Begriff. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
   </si>
 </sst>
 </file>
@@ -597,13 +597,15 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="9" max="9" width="92.28515625" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -614,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -650,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -667,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>68</v>
@@ -682,10 +684,10 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -703,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
@@ -717,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>52</v>
@@ -732,37 +734,37 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -770,52 +772,52 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>35</v>
       </c>
       <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
         <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/pages/Fallbeispiele.xlsx
+++ b/pages/Fallbeispiele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arneb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9E886-5FA2-4C21-AD17-26EE779DD641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ECEA2D-3495-46EB-B247-3C7116E28AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Zusammenfassung</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Sie ist sehr redefreudig und sprachgewandt. Sie hat eine Deutsche Mutter aber fast Ihr ganzes Leben im franösisch-sprachigen Raum von Kanada verbracht. Sie spricht daher nicht fehlerfrei deutsch. Manchmal fallen ihr Wörter nicht ein und sie versucht dann den französischen oder englischen Begriff. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
+  </si>
+  <si>
+    <t>Dein Sprachstil ist eher grob und plump. Du sprichst ein wenig im berlinerischen Stil. Du versuchst immer wieder witzig zu sein. Du erzählst gerne von Deiner sportlichen Vergangenheit und Deinen Lebensleistungen im Allgemeinen.</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,6 +692,9 @@
       <c r="H2" t="s">
         <v>44</v>
       </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>

--- a/pages/Fallbeispiele.xlsx
+++ b/pages/Fallbeispiele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arneb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ECEA2D-3495-46EB-B247-3C7116E28AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48583B06-D74F-47ED-B463-7C21D4187A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
   </bookViews>
@@ -215,10 +215,10 @@
     <t>Nichtraucherin, keine Familienanamnese von mit ähnlichen Beschwerden, häufiger Stress, wenig Sport</t>
   </si>
   <si>
-    <t>Sie ist sehr redefreudig und sprachgewandt. Sie hat eine Deutsche Mutter aber fast Ihr ganzes Leben im franösisch-sprachigen Raum von Kanada verbracht. Sie spricht daher nicht fehlerfrei deutsch. Manchmal fallen ihr Wörter nicht ein und sie versucht dann den französischen oder englischen Begriff. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
-  </si>
-  <si>
     <t>Dein Sprachstil ist eher grob und plump. Du sprichst ein wenig im berlinerischen Stil. Du versuchst immer wieder witzig zu sein. Du erzählst gerne von Deiner sportlichen Vergangenheit und Deinen Lebensleistungen im Allgemeinen.</t>
+  </si>
+  <si>
+    <t>Sie ist sehr redefreudig und sprachgewandt. Sie hat eine Deutsche Mutter aber fast Ihr ganzes Leben im französisch-sprachigen Raum von Kanada verbracht. Sie macht daher immer wieder kleine Fehler in Grammatik und Aussprache. Manchmal fallen ihr Wörter nicht ein und sie versucht dann den französischen oder englischen Begriff. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
         <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -746,7 +746,7 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
         <v>58</v>

--- a/pages/Fallbeispiele.xlsx
+++ b/pages/Fallbeispiele.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arneb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48583B06-D74F-47ED-B463-7C21D4187A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF82BD20-BE17-4F32-BAE3-99EF5269EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B45A54D1-DF06-4C62-AC9D-ACD1883060CC}"/>
   </bookViews>
@@ -218,7 +218,7 @@
     <t>Dein Sprachstil ist eher grob und plump. Du sprichst ein wenig im berlinerischen Stil. Du versuchst immer wieder witzig zu sein. Du erzählst gerne von Deiner sportlichen Vergangenheit und Deinen Lebensleistungen im Allgemeinen.</t>
   </si>
   <si>
-    <t>Sie ist sehr redefreudig und sprachgewandt. Sie hat eine Deutsche Mutter aber fast Ihr ganzes Leben im französisch-sprachigen Raum von Kanada verbracht. Sie macht daher immer wieder kleine Fehler in Grammatik und Aussprache. Manchmal fallen ihr Wörter nicht ein und sie versucht dann den französischen oder englischen Begriff. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
+    <t>Sie hat eine Deutsche Mutter, aber fast Ihr ganzes Leben im französisch-sprachigen Raum von Kanada verbracht. Sie macht daher immer wieder kleine Fehler in Grammatik und Aussprache. Manchmal fallen ihr Wörter nicht ein und sie versucht dann den französischen oder englischen Begriff. Erzählt viele Anekdoten aus ihrem Leben und schweift ab wenn sie erzählt.</t>
   </si>
 </sst>
 </file>
